--- a/database/insert文/タグ.xlsx
+++ b/database/insert文/タグ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -48,15 +48,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ああああ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>null</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>INSERT INTO tag VALUES (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -422,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -435,7 +453,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -460,18 +478,55 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE($A$1,A3,$C$1,$D$1,B3,$D$1,$B$1)</f>
+        <v>INSERT INTO tag VALUES (null,"スケジュール");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="str">
-        <f>CONCATENATE($A$1,A3,$C$1,$D$1,B3,D1,B1)</f>
-        <v>INSERT INTO tag VALUES (null,"ああああ");</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C6" si="0">CONCATENATE($A$1,A4,$C$1,$D$1,B4,$D$1,$B$1)</f>
+        <v>INSERT INTO tag VALUES (null,"時間");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tag VALUES (null,"ルール");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO tag VALUES (null,"その他");</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/insert文/タグ.xlsx
+++ b/database/insert文/タグ.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -75,6 +76,63 @@
     <rPh sb="2" eb="3">
       <t>タ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheet1:INSERT文 Sheet2:Update文（写真）</t>
+    <rPh sb="13" eb="14">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>character.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handshake.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memo.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timeschedule.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE tag SET photo = </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHERE id =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -82,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +154,21 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0077AA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,11 +228,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -440,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -451,7 +528,7 @@
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="36" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -464,8 +541,11 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -473,53 +553,68 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="str">
         <f>CONCATENATE($A$1,A3,$C$1,$D$1,B3,$D$1,$B$1)</f>
         <v>INSERT INTO tag VALUES (null,"スケジュール");</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C6" si="0">CONCATENATE($A$1,A4,$C$1,$D$1,B4,$D$1,$B$1)</f>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D6" si="0">CONCATENATE($A$1,A4,$C$1,$D$1,B4,$D$1,$B$1)</f>
         <v>INSERT INTO tag VALUES (null,"時間");</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO tag VALUES (null,"ルール");</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO tag VALUES (null,"その他");</v>
       </c>
@@ -529,4 +624,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE($A$1,$D$1,A3,$D$1,$G$1,B3,$B$1)</f>
+        <v>UPDATE tag SET photo = "character.png" WHERE id =1 ;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C6" si="0">CONCATENATE($A$1,$D$1,A4,$D$1,$G$1,B4,$B$1)</f>
+        <v>UPDATE tag SET photo = "handshake.png" WHERE id =2 ;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE tag SET photo = "memo.png" WHERE id =3 ;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE tag SET photo = "timeschedule.png" WHERE id =4 ;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database/insert文/タグ.xlsx
+++ b/database/insert文/タグ.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -84,55 +83,6 @@
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sheet1:INSERT文 Sheet2:Update文（写真）</t>
-    <rPh sb="13" eb="14">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シャシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>photo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>character.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>handshake.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>memo.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>timeschedule.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE tag SET photo = </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> WHERE id =</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -140,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,12 +114,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0077AA"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,15 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -519,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -541,9 +482,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -570,8 +509,8 @@
         <v>13</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE($A$1,A3,$C$1,$D$1,B3,$D$1,$B$1)</f>
-        <v>INSERT INTO tag VALUES (null,"スケジュール");</v>
+        <f>CONCATENATE($A$1,A3,$C$1,$D$1,B3,$D$1,$C$1,$D$1,C3,$D$1,$B$1)</f>
+        <v>INSERT INTO tag VALUES (null,"スケジュール","null");</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -585,8 +524,8 @@
         <v>13</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D6" si="0">CONCATENATE($A$1,A4,$C$1,$D$1,B4,$D$1,$B$1)</f>
-        <v>INSERT INTO tag VALUES (null,"時間");</v>
+        <f t="shared" ref="D4:D6" si="0">CONCATENATE($A$1,A4,$C$1,$D$1,B4,$D$1,$C$1,$D$1,C4,$D$1,$B$1)</f>
+        <v>INSERT INTO tag VALUES (null,"時間","null");</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -601,7 +540,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tag VALUES (null,"ルール");</v>
+        <v>INSERT INTO tag VALUES (null,"ルール","null");</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -616,7 +555,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO tag VALUES (null,"その他");</v>
+        <v>INSERT INTO tag VALUES (null,"その他","null");</v>
       </c>
     </row>
   </sheetData>
@@ -624,101 +563,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <f>CONCATENATE($A$1,$D$1,A3,$D$1,$G$1,B3,$B$1)</f>
-        <v>UPDATE tag SET photo = "character.png" WHERE id =1 ;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C6" si="0">CONCATENATE($A$1,$D$1,A4,$D$1,$G$1,B4,$B$1)</f>
-        <v>UPDATE tag SET photo = "handshake.png" WHERE id =2 ;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>UPDATE tag SET photo = "memo.png" WHERE id =3 ;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>UPDATE tag SET photo = "timeschedule.png" WHERE id =4 ;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>